--- a/2022/Symphony/MARCH/10.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/10.03.2022/MC Bank Statement March-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3043,12 +3043,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3080,6 +3074,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3130,6 +3130,15 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3177,15 +3186,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -6080,67 +6080,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="G1" s="322"/>
-      <c r="H1" s="322"/>
-      <c r="I1" s="322"/>
-      <c r="J1" s="322"/>
-      <c r="K1" s="322"/>
-      <c r="L1" s="322"/>
-      <c r="M1" s="322"/>
-      <c r="N1" s="322"/>
-      <c r="O1" s="322"/>
-      <c r="P1" s="322"/>
-      <c r="Q1" s="322"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="320"/>
+      <c r="P1" s="320"/>
+      <c r="Q1" s="320"/>
     </row>
     <row r="2" spans="1:24" s="71" customFormat="1" ht="18">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="321" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="323"/>
-      <c r="M2" s="323"/>
-      <c r="N2" s="323"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="323"/>
-      <c r="Q2" s="323"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
     </row>
     <row r="3" spans="1:24" s="72" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="322" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="325"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
-      <c r="N3" s="325"/>
-      <c r="O3" s="325"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="326"/>
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="323"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="323"/>
+      <c r="Q3" s="324"/>
       <c r="S3" s="55"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6149,49 +6149,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="327" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="329" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="318" t="s">
+      <c r="D4" s="329" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="318" t="s">
+      <c r="E4" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="318" t="s">
+      <c r="F4" s="329" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="318" t="s">
+      <c r="G4" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="318" t="s">
+      <c r="H4" s="329" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="318" t="s">
+      <c r="I4" s="329" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="318" t="s">
+      <c r="J4" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="318" t="s">
+      <c r="K4" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="318" t="s">
+      <c r="L4" s="329" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="318" t="s">
+      <c r="M4" s="329" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="318" t="s">
+      <c r="N4" s="329" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="320" t="s">
+      <c r="O4" s="318" t="s">
         <v>44</v>
       </c>
       <c r="P4" s="331" t="s">
@@ -6207,21 +6207,21 @@
       <c r="W4" s="75"/>
     </row>
     <row r="5" spans="1:24" s="73" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="328"/>
-      <c r="B5" s="330"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
-      <c r="N5" s="319"/>
-      <c r="O5" s="321"/>
+      <c r="A5" s="326"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="319"/>
       <c r="P5" s="332"/>
       <c r="Q5" s="135" t="s">
         <v>45</v>
@@ -9227,6 +9227,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9243,9 +9246,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9259,8 +9259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14055,7 +14055,9 @@
       <c r="E46" s="282" t="s">
         <v>228</v>
       </c>
-      <c r="F46" s="139"/>
+      <c r="F46" s="139">
+        <v>488730</v>
+      </c>
       <c r="G46" s="146"/>
       <c r="H46" s="200" t="s">
         <v>162</v>
@@ -14177,7 +14179,9 @@
       <c r="E47" s="186" t="s">
         <v>228</v>
       </c>
-      <c r="F47" s="140"/>
+      <c r="F47" s="140">
+        <v>250000</v>
+      </c>
       <c r="G47" s="146"/>
       <c r="H47" s="196" t="s">
         <v>160</v>
@@ -14543,7 +14547,9 @@
       <c r="E50" s="186" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="140"/>
+      <c r="F50" s="140">
+        <v>196020</v>
+      </c>
       <c r="G50" s="146"/>
       <c r="H50" s="183" t="s">
         <v>125</v>
@@ -14909,7 +14915,9 @@
       <c r="E53" s="188" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="140"/>
+      <c r="F53" s="140">
+        <v>36180</v>
+      </c>
       <c r="G53" s="146"/>
       <c r="H53" s="196" t="s">
         <v>176</v>
@@ -33806,7 +33814,7 @@
   </sheetPr>
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -33825,35 +33833,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="347" t="s">
+      <c r="A1" s="350" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="349"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="352"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="359" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="357"/>
-      <c r="C2" s="357"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="358"/>
+      <c r="B2" s="360"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="361"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="353" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="352"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="355"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33876,15 +33884,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="359" t="s">
+      <c r="A4" s="362" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="360"/>
+      <c r="B4" s="363"/>
       <c r="C4" s="279"/>
-      <c r="D4" s="361" t="s">
+      <c r="D4" s="364" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="362"/>
+      <c r="E4" s="365"/>
       <c r="F4" s="5"/>
       <c r="G4" s="47"/>
       <c r="H4" s="7"/>
@@ -34348,13 +34356,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="353" t="s">
+      <c r="A19" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="354"/>
-      <c r="C19" s="354"/>
-      <c r="D19" s="354"/>
-      <c r="E19" s="355"/>
+      <c r="B19" s="357"/>
+      <c r="C19" s="357"/>
+      <c r="D19" s="357"/>
+      <c r="E19" s="358"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
@@ -34749,13 +34757,13 @@
       <c r="Y30" s="7"/>
     </row>
     <row r="31" spans="1:25" ht="24" thickBot="1">
-      <c r="A31" s="363" t="s">
+      <c r="A31" s="347" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="364"/>
-      <c r="C31" s="364"/>
-      <c r="D31" s="364"/>
-      <c r="E31" s="365"/>
+      <c r="B31" s="348"/>
+      <c r="C31" s="348"/>
+      <c r="D31" s="348"/>
+      <c r="E31" s="349"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
